--- a/2020/cursos/etica/Octavo/Listados Etica 8-1.xlsx
+++ b/2020/cursos/etica/Octavo/Listados Etica 8-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Octavo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2409C-A6E0-4676-9518-36F883CA77FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B7E650-E167-4DA6-A477-E94CE84E7E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="390" windowWidth="16440" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
   <dimension ref="A3:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2020/cursos/etica/Octavo/Listados Etica 8-1.xlsx
+++ b/2020/cursos/etica/Octavo/Listados Etica 8-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Octavo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B7E650-E167-4DA6-A477-E94CE84E7E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99131B2A-4840-4808-B58A-4AD8D2C2DD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:D38"/>
+  <dimension ref="A3:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +548,7 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -561,8 +561,11 @@
       <c r="D3" s="5">
         <v>43999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="5">
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2350</v>
       </c>
@@ -575,8 +578,11 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2349</v>
       </c>
@@ -589,8 +595,11 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1964</v>
       </c>
@@ -603,8 +612,11 @@
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4310</v>
       </c>
@@ -615,8 +627,11 @@
         <v>8</v>
       </c>
       <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1941</v>
       </c>
@@ -627,8 +642,11 @@
         <v>9</v>
       </c>
       <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4278</v>
       </c>
@@ -641,8 +659,9 @@
       <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1691</v>
       </c>
@@ -653,8 +672,9 @@
         <v>11</v>
       </c>
       <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2255</v>
       </c>
@@ -667,8 +687,11 @@
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1661</v>
       </c>
@@ -679,8 +702,11 @@
         <v>13</v>
       </c>
       <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2307</v>
       </c>
@@ -691,8 +717,11 @@
         <v>14</v>
       </c>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1893</v>
       </c>
@@ -705,8 +734,11 @@
       <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1936</v>
       </c>
@@ -719,8 +751,11 @@
       <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2632</v>
       </c>
@@ -733,8 +768,11 @@
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>658</v>
       </c>
@@ -745,8 +783,9 @@
         <v>18</v>
       </c>
       <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4277</v>
       </c>
@@ -759,8 +798,11 @@
       <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2383</v>
       </c>
@@ -773,8 +815,11 @@
       <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4276</v>
       </c>
@@ -787,8 +832,9 @@
       <c r="D20" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4285</v>
       </c>
@@ -799,8 +845,11 @@
         <v>22</v>
       </c>
       <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1910</v>
       </c>
@@ -813,8 +862,11 @@
       <c r="D22" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2637</v>
       </c>
@@ -825,8 +877,9 @@
         <v>24</v>
       </c>
       <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4282</v>
       </c>
@@ -839,8 +892,11 @@
       <c r="D24" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>4279</v>
       </c>
@@ -853,8 +909,11 @@
       <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1935</v>
       </c>
@@ -867,8 +926,11 @@
       <c r="D26" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>665</v>
       </c>
@@ -879,8 +941,9 @@
         <v>28</v>
       </c>
       <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2344</v>
       </c>
@@ -893,8 +956,11 @@
       <c r="D28" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>4281</v>
       </c>
@@ -905,8 +971,11 @@
         <v>30</v>
       </c>
       <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2398</v>
       </c>
@@ -917,8 +986,9 @@
         <v>31</v>
       </c>
       <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2782</v>
       </c>
@@ -929,8 +999,11 @@
         <v>32</v>
       </c>
       <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1880</v>
       </c>
@@ -943,8 +1016,11 @@
       <c r="D32" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1896</v>
       </c>
@@ -957,8 +1033,11 @@
       <c r="D33" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1925</v>
       </c>
@@ -969,8 +1048,9 @@
         <v>35</v>
       </c>
       <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>4280</v>
       </c>
@@ -983,8 +1063,11 @@
       <c r="D35" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1730</v>
       </c>
@@ -997,8 +1080,11 @@
       <c r="D36" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>4070</v>
       </c>
@@ -1011,8 +1097,11 @@
       <c r="D37" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E37" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38"/>
       <c r="C38" s="6" t="s">
@@ -1021,6 +1110,10 @@
       <c r="D38" s="6">
         <f>COUNTA(D4:D37)</f>
         <v>21</v>
+      </c>
+      <c r="E38" s="6">
+        <f>COUNTA(E4:E37)</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/2020/cursos/etica/Octavo/Listados Etica 8-1.xlsx
+++ b/2020/cursos/etica/Octavo/Listados Etica 8-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Octavo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99131B2A-4840-4808-B58A-4AD8D2C2DD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F757C5FF-4AE2-42E2-9914-A3DCF10720A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:E38"/>
+  <dimension ref="A3:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,10 +545,12 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -564,8 +566,19 @@
       <c r="E3" s="5">
         <v>44020</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="5">
+        <v>44034</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2350</v>
       </c>
@@ -581,8 +594,17 @@
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2349</v>
       </c>
@@ -598,8 +620,17 @@
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1964</v>
       </c>
@@ -615,8 +646,17 @@
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4310</v>
       </c>
@@ -630,8 +670,17 @@
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1941</v>
       </c>
@@ -645,8 +694,19 @@
       <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4278</v>
       </c>
@@ -660,8 +720,19 @@
         <v>3</v>
       </c>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1691</v>
       </c>
@@ -673,8 +744,17 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2255</v>
       </c>
@@ -690,8 +770,19 @@
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1661</v>
       </c>
@@ -705,8 +796,19 @@
       <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2307</v>
       </c>
@@ -720,8 +822,17 @@
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1893</v>
       </c>
@@ -737,8 +848,19 @@
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1936</v>
       </c>
@@ -754,8 +876,19 @@
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2632</v>
       </c>
@@ -771,8 +904,17 @@
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>658</v>
       </c>
@@ -784,8 +926,17 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4277</v>
       </c>
@@ -801,8 +952,17 @@
       <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2383</v>
       </c>
@@ -818,8 +978,19 @@
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4276</v>
       </c>
@@ -833,8 +1004,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4285</v>
       </c>
@@ -848,8 +1030,19 @@
       <c r="E21" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1910</v>
       </c>
@@ -865,8 +1058,19 @@
       <c r="E22" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2637</v>
       </c>
@@ -878,8 +1082,19 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4282</v>
       </c>
@@ -895,8 +1110,19 @@
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>4279</v>
       </c>
@@ -912,8 +1138,19 @@
       <c r="E25" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1935</v>
       </c>
@@ -929,8 +1166,17 @@
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>665</v>
       </c>
@@ -942,8 +1188,17 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2344</v>
       </c>
@@ -959,8 +1214,19 @@
       <c r="E28" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>4281</v>
       </c>
@@ -974,8 +1240,17 @@
       <c r="E29" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2398</v>
       </c>
@@ -987,8 +1262,19 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2782</v>
       </c>
@@ -1002,8 +1288,19 @@
       <c r="E31" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1880</v>
       </c>
@@ -1019,8 +1316,19 @@
       <c r="E32" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1896</v>
       </c>
@@ -1036,8 +1344,17 @@
       <c r="E33" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1925</v>
       </c>
@@ -1049,8 +1366,17 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>4280</v>
       </c>
@@ -1066,8 +1392,19 @@
       <c r="E35" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1730</v>
       </c>
@@ -1083,8 +1420,17 @@
       <c r="E36" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>4070</v>
       </c>
@@ -1100,8 +1446,19 @@
       <c r="E37" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38"/>
       <c r="C38" s="6" t="s">
@@ -1115,6 +1472,18 @@
         <f>COUNTA(E4:E37)</f>
         <v>26</v>
       </c>
+      <c r="F38" s="6">
+        <f>COUNTA(F4:F37)</f>
+        <v>19</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
